--- a/pred_ohlcv/54_21/2019-10-15 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 BTG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1131.36080821</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1255.86080821</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1377.66328981</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1256.16528981</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1278.60458981</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1282.80298981</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1490.30298981</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1490.30298981</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1490.30298981</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1282.97388981</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1354.89018981</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1354.89018981</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1591.47698981</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>2014.70268981</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>4756.010186119999</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>4756.010186119999</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>4751.010186119999</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>4751.010186119999</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>4846.010186119999</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>4846.010186119999</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>4880.010186119999</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>4845.381386119999</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>4851.381386119999</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>4851.381386119999</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>4851.381386119999</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>4857.381386119999</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-15 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 BTG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1131.36080821</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1255.86080821</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1377.66328981</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1256.16528981</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1278.60458981</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1282.80298981</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1490.30298981</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1490.30298981</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>2014.70268981</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>4724.010186119999</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>4756.010186119999</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>4756.010186119999</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>4751.010186119999</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>4751.010186119999</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>4846.010186119999</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>4846.010186119999</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>4880.010186119999</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>4845.381386119999</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>4851.381386119999</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>4851.381386119999</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>4851.381386119999</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>4857.381386119999</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
